--- a/Workbook2.xlsx
+++ b/Workbook2.xlsx
@@ -15814,7 +15814,7 @@
   <dimension ref="A1:AL685"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+      <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
